--- a/ONCHO/black fly collection/tg_oncho_bsc_1_site.xlsx
+++ b/ONCHO/black fly collection/tg_oncho_bsc_1_site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\black fly collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BA3DF-EC41-4EDB-BB8E-E5327B5F550F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE8C79-4B4F-4292-AF55-0105BBAAD51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="132">
   <si>
     <t>form_title</t>
   </si>
@@ -146,9 +146,6 @@
     <t>yesNoDontKnow</t>
   </si>
   <si>
-    <t>1. Black Flies Capture - Site</t>
-  </si>
-  <si>
     <t>s_recorder_id</t>
   </si>
   <si>
@@ -242,69 +239,12 @@
     <t>Le code doit être un nombre à deux chiffres entre 99 et 100</t>
   </si>
   <si>
-    <t>River Bassin 1</t>
-  </si>
-  <si>
-    <t>River Bassin 2</t>
-  </si>
-  <si>
-    <t>Stream 1</t>
-  </si>
-  <si>
-    <t>Stream 2</t>
-  </si>
-  <si>
-    <t>Stream 3</t>
-  </si>
-  <si>
-    <t>Stream 4</t>
-  </si>
-  <si>
-    <t>Stream 5</t>
-  </si>
-  <si>
-    <t>Stream 6</t>
-  </si>
-  <si>
-    <t>Bassin Fluvial 1</t>
-  </si>
-  <si>
-    <t>Bassin Fluvial 2</t>
-  </si>
-  <si>
-    <t>Rivière 1</t>
-  </si>
-  <si>
-    <t>Rivière 2</t>
-  </si>
-  <si>
-    <t>Rivière 3</t>
-  </si>
-  <si>
-    <t>Rivière 4</t>
-  </si>
-  <si>
-    <t>Rivière 5</t>
-  </si>
-  <si>
-    <t>Rivière 6</t>
-  </si>
-  <si>
     <t>basin_list</t>
   </si>
   <si>
-    <t>stream_list</t>
-  </si>
-  <si>
-    <t>select_one basin_list</t>
-  </si>
-  <si>
     <t>s_river_basin_name</t>
   </si>
   <si>
-    <t>select_one stream_list</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -338,9 +278,6 @@
     <t>region_list=${s_province}</t>
   </si>
   <si>
-    <t>tg_oncho_bsc_1_site</t>
-  </si>
-  <si>
     <t>CENTRALE</t>
   </si>
   <si>
@@ -483,6 +420,12 @@
   </si>
   <si>
     <t>Le code doit être un nombre à deux chiffres entre 9 et 100</t>
+  </si>
+  <si>
+    <t>1. Black Flies Capture - Site V2</t>
+  </si>
+  <si>
+    <t>tg_oncho_bsc_1_site_v2</t>
   </si>
 </sst>
 </file>
@@ -978,11 +921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1056,13 +999,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>20</v>
@@ -1072,13 +1015,13 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -1090,17 +1033,17 @@
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
@@ -1119,14 +1062,14 @@
         <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="17"/>
@@ -1140,7 +1083,7 @@
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="16" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
@@ -1148,25 +1091,25 @@
         <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="17"/>
       <c r="H5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="15"/>
@@ -1178,17 +1121,17 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="15"/>
@@ -1205,17 +1148,17 @@
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
@@ -1229,22 +1172,22 @@
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
@@ -1264,19 +1207,19 @@
         <v>29</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="E9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1292,17 +1235,17 @@
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="17"/>
@@ -1322,14 +1265,14 @@
         <v>30</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="12"/>
@@ -1347,7 +1290,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -1368,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -1413,11 +1356,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1444,104 +1387,104 @@
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="29"/>
@@ -1551,16 +1494,16 @@
         <v>23</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F8" s="29"/>
     </row>
@@ -1569,16 +1512,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F9" s="29"/>
     </row>
@@ -1587,16 +1530,16 @@
         <v>23</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F10" s="29"/>
     </row>
@@ -1605,16 +1548,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -1623,16 +1566,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F12" s="29"/>
     </row>
@@ -1641,16 +1584,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -1659,16 +1602,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F14" s="29"/>
     </row>
@@ -1677,16 +1620,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -1695,16 +1638,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F16" s="29"/>
     </row>
@@ -1713,16 +1656,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F17" s="29"/>
     </row>
@@ -1731,16 +1674,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F18" s="29"/>
     </row>
@@ -1749,16 +1692,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F19" s="29"/>
     </row>
@@ -1767,16 +1710,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="29"/>
     </row>
@@ -1785,16 +1728,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F21" s="29"/>
     </row>
@@ -1803,16 +1746,16 @@
         <v>23</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F22" s="29"/>
     </row>
@@ -1821,16 +1764,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F23" s="29"/>
     </row>
@@ -1839,16 +1782,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F24" s="29"/>
     </row>
@@ -1857,16 +1800,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F25" s="29"/>
     </row>
@@ -1875,16 +1818,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F26" s="29"/>
     </row>
@@ -1893,16 +1836,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F27" s="29"/>
     </row>
@@ -1911,16 +1854,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F28" s="29"/>
     </row>
@@ -1929,16 +1872,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F29" s="29"/>
     </row>
@@ -1947,16 +1890,16 @@
         <v>23</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F30" s="29"/>
     </row>
@@ -1965,16 +1908,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F31" s="29"/>
     </row>
@@ -1983,16 +1926,16 @@
         <v>23</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F32" s="29"/>
     </row>
@@ -2001,16 +1944,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F33" s="29"/>
     </row>
@@ -2019,16 +1962,16 @@
         <v>23</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F34" s="29"/>
     </row>
@@ -2037,16 +1980,16 @@
         <v>23</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F35" s="29"/>
     </row>
@@ -2055,16 +1998,16 @@
         <v>23</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -2073,16 +2016,16 @@
         <v>23</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F37" s="29"/>
     </row>
@@ -2091,16 +2034,16 @@
         <v>23</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F38" s="29"/>
     </row>
@@ -2109,16 +2052,16 @@
         <v>23</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F39" s="29"/>
     </row>
@@ -2127,16 +2070,16 @@
         <v>23</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F40" s="29"/>
     </row>
@@ -2145,16 +2088,16 @@
         <v>23</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F41" s="29"/>
     </row>
@@ -2163,16 +2106,16 @@
         <v>23</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F42" s="29"/>
     </row>
@@ -2181,16 +2124,16 @@
         <v>23</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F43" s="29"/>
     </row>
@@ -2199,16 +2142,16 @@
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F44" s="29"/>
     </row>
@@ -2217,16 +2160,16 @@
         <v>23</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F45" s="29"/>
     </row>
@@ -2235,16 +2178,16 @@
         <v>23</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F46" s="29"/>
     </row>
@@ -2253,210 +2196,70 @@
         <v>23</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="7" t="s">
-        <v>86</v>
+      <c r="A48" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="7" t="s">
-        <v>86</v>
+      <c r="A49" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="7" t="s">
-        <v>87</v>
+      <c r="A50" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E50" s="16"/>
-      <c r="F50" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="7"/>
+      <c r="F50" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:C102">
-    <sortCondition ref="B57:B102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:C94">
+    <sortCondition ref="B49:B94"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2469,7 +2272,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -2495,10 +2298,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>20200601</v>
